--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_232__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_232__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,22 +5987,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>102.1893310546875</c:v>
+                  <c:v>102.1893081665039</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.74907684326172</c:v>
+                  <c:v>87.74909973144531</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.8055419921875</c:v>
+                  <c:v>97.80553436279297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.3519668579102</c:v>
+                  <c:v>100.3519439697266</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>99.66123962402344</c:v>
@@ -6011,7 +6011,7 @@
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.15245819091797</c:v>
+                  <c:v>38.15245056152344</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>99.56725311279297</c:v>
@@ -6041,37 +6041,37 @@
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49.3425178527832</c:v>
+                  <c:v>49.34250640869141</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.74991607666016</c:v>
+                  <c:v>30.74990463256836</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>87.03229522705078</c:v>
+                  <c:v>87.03227996826172</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100.4908981323242</c:v>
+                  <c:v>100.4908905029297</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.59170913696289</c:v>
+                  <c:v>30.59169769287109</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>17.62388801574707</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70.50258636474609</c:v>
+                  <c:v>70.50257873535156</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>93.97086334228516</c:v>
+                  <c:v>93.97087860107422</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>100.2493209838867</c:v>
@@ -6095,13 +6095,13 @@
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>77.55598449707031</c:v>
+                  <c:v>77.55599975585938</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42.19107437133789</c:v>
+                  <c:v>42.19107055664062</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>89.03253936767578</c:v>
+                  <c:v>89.03252410888672</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2.800674200057983</c:v>
@@ -6110,22 +6110,22 @@
                   <c:v>69.32871246337891</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>97.73799896240234</c:v>
+                  <c:v>97.73801422119141</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>96.61697387695312</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>22.77572059631348</c:v>
+                  <c:v>22.77572631835938</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62.40059280395508</c:v>
+                  <c:v>62.40059661865234</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>99.45712280273438</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>91.44846343994141</c:v>
+                  <c:v>91.44847106933594</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>2.800674200057983</c:v>
@@ -6134,7 +6134,7 @@
                   <c:v>91.38643646240234</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>101.8810958862305</c:v>
+                  <c:v>101.8810729980469</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>2.800674200057983</c:v>
@@ -6149,10 +6149,10 @@
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>98.90169525146484</c:v>
+                  <c:v>98.90167999267578</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>71.57338714599609</c:v>
+                  <c:v>71.5733642578125</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>2.800674200057983</c:v>
@@ -6161,13 +6161,13 @@
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>99.50180816650391</c:v>
+                  <c:v>99.50178527832031</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>92.27728271484375</c:v>
+                  <c:v>92.27725982666016</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>2.800674200057983</c:v>
@@ -6185,10 +6185,10 @@
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>98.75193786621094</c:v>
+                  <c:v>98.75191497802734</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>87.52584075927734</c:v>
+                  <c:v>87.52585601806641</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>2.800674200057983</c:v>
@@ -6200,25 +6200,25 @@
                   <c:v>98.74117279052734</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>99.26069641113281</c:v>
+                  <c:v>99.26071929931641</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>101.5626449584961</c:v>
+                  <c:v>101.5626602172852</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.21869659423828</c:v>
+                  <c:v>97.21871948242188</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>87.16928100585938</c:v>
+                  <c:v>87.16929626464844</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>95.26681518554688</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>95.47776031494141</c:v>
+                  <c:v>95.47773742675781</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>84.62281036376953</c:v>
@@ -6236,13 +6236,13 @@
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>91.30776977539062</c:v>
+                  <c:v>91.30774688720703</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>48.95756149291992</c:v>
+                  <c:v>48.95755004882812</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>99.66189575195312</c:v>
+                  <c:v>99.66191864013672</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2.800674200057983</c:v>
@@ -6260,7 +6260,7 @@
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.52655220031738</c:v>
+                  <c:v>15.52655410766602</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>100.0505752563477</c:v>
@@ -6275,7 +6275,7 @@
                   <c:v>2.800674200057983</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>85.88441467285156</c:v>
+                  <c:v>85.88442230224609</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>2.800674200057983</c:v>
@@ -6284,7 +6284,7 @@
                   <c:v>82.22948455810547</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>92.40913391113281</c:v>
+                  <c:v>92.40912628173828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>102.1893310546875</v>
+        <v>102.1893081665039</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>88.0701</v>
       </c>
       <c r="F4">
-        <v>87.74907684326172</v>
+        <v>87.74909973144531</v>
       </c>
       <c r="G4">
         <v>103</v>
@@ -7107,7 +7107,7 @@
         <v>96.7841</v>
       </c>
       <c r="F6">
-        <v>97.8055419921875</v>
+        <v>97.80553436279297</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>100.3519668579102</v>
+        <v>100.3519439697266</v>
       </c>
       <c r="G7">
         <v>103</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.15245819091797</v>
+        <v>38.15245056152344</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>49.3425178527832</v>
+        <v>49.34250640869141</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.74991607666016</v>
+        <v>30.74990463256836</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>67.3374</v>
       </c>
       <c r="F22">
-        <v>87.03229522705078</v>
+        <v>87.03227996826172</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>100.4908981323242</v>
+        <v>100.4908905029297</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>30.59170913696289</v>
+        <v>30.59169769287109</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>70.50258636474609</v>
+        <v>70.50257873535156</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>90.9726</v>
       </c>
       <c r="F30">
-        <v>93.97086334228516</v>
+        <v>93.97087860107422</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>77.55598449707031</v>
+        <v>77.55599975585938</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>42.19107437133789</v>
+        <v>42.19107055664062</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>97.63800000000001</v>
       </c>
       <c r="F40">
-        <v>89.03253936767578</v>
+        <v>89.03252410888672</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>96.66849999999999</v>
       </c>
       <c r="F43">
-        <v>97.73799896240234</v>
+        <v>97.73801422119141</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>22.77572059631348</v>
+        <v>22.77572631835938</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>62.40059280395508</v>
+        <v>62.40059661865234</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>95.2355</v>
       </c>
       <c r="F48">
-        <v>91.44846343994141</v>
+        <v>91.44847106933594</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>101.8810958862305</v>
+        <v>101.8810729980469</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>98.90169525146484</v>
+        <v>98.90167999267578</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>58.6329</v>
       </c>
       <c r="F57">
-        <v>71.57338714599609</v>
+        <v>71.5733642578125</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>99.50180816650391</v>
+        <v>99.50178527832031</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>92.27728271484375</v>
+        <v>92.27725982666016</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>98.75193786621094</v>
+        <v>98.75191497802734</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>87.52584075927734</v>
+        <v>87.52585601806641</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>95.1549</v>
       </c>
       <c r="F73">
-        <v>99.26069641113281</v>
+        <v>99.26071929931641</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>101.5626449584961</v>
+        <v>101.5626602172852</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>98.0594</v>
       </c>
       <c r="F75">
-        <v>97.21869659423828</v>
+        <v>97.21871948242188</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>84.64230000000001</v>
       </c>
       <c r="F77">
-        <v>87.16928100585938</v>
+        <v>87.16929626464844</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.7921</v>
       </c>
       <c r="F79">
-        <v>95.47776031494141</v>
+        <v>95.47773742675781</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5714</v>
       </c>
       <c r="F85">
-        <v>91.30776977539062</v>
+        <v>91.30774688720703</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>48.95756149291992</v>
+        <v>48.95755004882812</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>94.4075</v>
       </c>
       <c r="F87">
-        <v>99.66189575195312</v>
+        <v>99.66191864013672</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>15.52655220031738</v>
+        <v>15.52655410766602</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>94.0264</v>
       </c>
       <c r="F98">
-        <v>85.88441467285156</v>
+        <v>85.88442230224609</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>98.1628</v>
       </c>
       <c r="F101">
-        <v>92.40913391113281</v>
+        <v>92.40912628173828</v>
       </c>
     </row>
     <row r="102" spans="1:6">
